--- a/ExampleTimeResults.xlsx
+++ b/ExampleTimeResults.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sam/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sam/Desktop/Jobs/JuzzyPython/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB2C6B4-C72D-2447-97BF-8DFFF4467FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B444C69-A327-9147-95CB-E6A5D27CA850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="1460" windowWidth="30240" windowHeight="18880" xr2:uid="{600C6317-462B-0B4D-B0C8-FECA3F5EBF16}"/>
+    <workbookView xWindow="2540" yWindow="1460" windowWidth="22480" windowHeight="18880" xr2:uid="{600C6317-462B-0B4D-B0C8-FECA3F5EBF16}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,69 +34,106 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Python</t>
-  </si>
-  <si>
-    <t>Java</t>
-  </si>
-  <si>
-    <t>Single</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>Plot</t>
   </si>
   <si>
-    <t>SimpleT1FLS</t>
-  </si>
-  <si>
-    <t>SimpleT1FLS_twoOutputs</t>
-  </si>
-  <si>
-    <t>SimpleNST1FLS</t>
-  </si>
-  <si>
-    <t>SimpleIT2FLS</t>
-  </si>
-  <si>
-    <t>SimpleIT2FLS_twoOutputs</t>
-  </si>
-  <si>
-    <t>SimpleNSIT2_IT2FLS</t>
-  </si>
-  <si>
-    <t>SimpleNST1IT2FLS</t>
-  </si>
-  <si>
-    <t>SimplezGT2FLS</t>
-  </si>
-  <si>
-    <t>SimplezGT2FLSNST1</t>
-  </si>
-  <si>
-    <t>SimplezGT2FLSNSIT2</t>
-  </si>
-  <si>
-    <t>SimplezGT2FLSNSGT2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Single </t>
-  </si>
-  <si>
-    <t>All times are in seconds</t>
-  </si>
-  <si>
-    <t>Processor: M1 Pro 8c/14c</t>
+    <t>Testcase</t>
+  </si>
+  <si>
+    <t>Iterations</t>
+  </si>
+  <si>
+    <t>GT2 Multicore</t>
+  </si>
+  <si>
+    <t>GT2</t>
+  </si>
+  <si>
+    <t>IT2</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>Control Surface</t>
+  </si>
+  <si>
+    <t>Average Python time in seconds</t>
+  </si>
+  <si>
+    <t>Average Java time in seconds</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>Number of z Levels</t>
+  </si>
+  <si>
+    <t>x Discretizations</t>
+  </si>
+  <si>
+    <t>y Discretizations</t>
+  </si>
+  <si>
+    <t>Service Input</t>
+  </si>
+  <si>
+    <t>Food Input</t>
+  </si>
+  <si>
+    <t>Evaluate Center of Sets type reduction</t>
+  </si>
+  <si>
+    <t>Evaluate Centroid type reduction</t>
+  </si>
+  <si>
+    <t>Get Centroid Center of Sets type reduction</t>
+  </si>
+  <si>
+    <t>Get Centroid Centroid type reduction</t>
+  </si>
+  <si>
+    <t>Evaluate Height defuzzification</t>
+  </si>
+  <si>
+    <t>Evaluate Centroid defuzzification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plotMF Type 1 </t>
+  </si>
+  <si>
+    <t>plotMF Type 2 Interval</t>
+  </si>
+  <si>
+    <t>plotMFasLines Type 2 General</t>
+  </si>
+  <si>
+    <t>plotMFasSurface Type 2 General</t>
+  </si>
+  <si>
+    <t>Generate Control Surface Data GT2 COS</t>
+  </si>
+  <si>
+    <t>Generate Control Surface Data GT2 Centroid</t>
+  </si>
+  <si>
+    <t>Generate Control Surface Data GT2 COS Multicore</t>
+  </si>
+  <si>
+    <t>Generate Control Surface Data GT2 Centroid Multicore</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -114,7 +151,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,24 +160,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -163,45 +194,36 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E194371-17C0-BD4B-AC93-D7F28FDBADBA}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -530,231 +552,488 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B4" s="7">
+        <v>200</v>
+      </c>
+      <c r="C4" s="7">
+        <v>7.8300000000000002E-3</v>
+      </c>
+      <c r="D4" s="11">
+        <v>8.2000000000000001E-5</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="7">
+        <v>200</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1.6820000000000002E-2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>5.9000000000000003E-4</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="7">
+        <v>200</v>
+      </c>
+      <c r="C6" s="7">
+        <v>5.2300000000000003E-3</v>
+      </c>
+      <c r="D6" s="11">
+        <v>6.8999999999999997E-5</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="7">
+        <v>200</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1.6289999999999999E-2</v>
+      </c>
+      <c r="D7" s="7">
+        <v>5.5000000000000003E-4</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="9" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="7">
+        <v>200</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.14821999999999999</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1.03497505187988E-3</v>
-      </c>
-      <c r="C3" s="3">
-        <v>7.0645158290863002</v>
-      </c>
-      <c r="D3" s="3">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="E3" s="8">
-        <v>0.89</v>
-      </c>
-      <c r="F3" s="10" t="s">
+      <c r="B10" s="7">
+        <v>200</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.15593000000000001</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3">
-        <v>4.63628768920898E-3</v>
-      </c>
-      <c r="C4" s="3">
-        <v>14.4068338871002</v>
-      </c>
-      <c r="D4" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.79900000000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3">
-        <v>2.02932357788085E-2</v>
-      </c>
-      <c r="C5" s="3">
-        <v>51.034609317779498</v>
-      </c>
-      <c r="D5" s="3">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="E5" s="3">
-        <v>2.968</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1.2402057647705E-2</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1.24986219406127</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.66500000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="3">
-        <v>2.9433965682983398E-2</v>
-      </c>
-      <c r="C7" s="3">
-        <v>54.203345775604198</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2.6219999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0.12794280052185</v>
-      </c>
-      <c r="C8" s="3">
-        <v>180.83540415763801</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="E8" s="3">
-        <v>6.6379999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="3">
-        <v>6.10699653625488E-2</v>
-      </c>
-      <c r="C9" s="3">
-        <v>69.788097143173204</v>
-      </c>
-      <c r="D9" s="3">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="E9" s="3">
-        <v>3.5110000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1.4388179779052701</v>
-      </c>
-      <c r="C10" s="3">
-        <v>121.587940216064</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="E10" s="3">
-        <v>7.1769999999999996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="3">
-        <v>1.5670206546783401</v>
-      </c>
-      <c r="C11" s="3">
-        <v>135.01820993423399</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="E11" s="3">
-        <v>7.8890000000000002</v>
-      </c>
+      <c r="B11" s="7">
+        <v>200</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.14537</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1.23E-2</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="3">
-        <v>1.9024009704589799</v>
-      </c>
-      <c r="C12" s="3">
-        <v>157.97569704055701</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0.13</v>
-      </c>
-      <c r="E12" s="3">
-        <v>8.6080000000000005</v>
-      </c>
+      <c r="A12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="7">
+        <v>200</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.15623999999999999</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1.29E-2</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1">
+        <v>200</v>
+      </c>
+      <c r="C14" s="13">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="D14" s="12">
+        <v>6.7000000000000004E-7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1">
+        <v>200</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2.63E-3</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1.6000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1">
+        <v>200</v>
+      </c>
+      <c r="C16" s="13">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="D16" s="13">
+        <v>6.9999999999999997E-7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1">
+        <v>200</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2.6800000000000001E-3</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.6000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1">
+        <v>200</v>
+      </c>
+      <c r="C19" s="13">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="D19" s="13">
+        <v>3.8999999999999999E-6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="1">
+        <v>200</v>
+      </c>
+      <c r="C20" s="1">
+        <v>6.0999999999999997E-4</v>
+      </c>
+      <c r="D20" s="13">
+        <v>6.3E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1">
+        <v>200</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2.0799999999999999E-2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>9.4999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1">
+        <v>200</v>
+      </c>
+      <c r="C23" s="1">
+        <v>4.4130000000000003E-2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1">
+        <v>200</v>
+      </c>
+      <c r="C24" s="1">
+        <v>6.8169999999999994E-2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>7.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1">
+        <v>200</v>
+      </c>
+      <c r="C25" s="1">
+        <v>9.2630000000000004E-2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3.2000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="1">
+        <v>200</v>
+      </c>
+      <c r="C27" s="14">
+        <v>63.642099999999999</v>
+      </c>
+      <c r="D27" s="1">
+        <v>4.9749999999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1">
+        <v>200</v>
+      </c>
+      <c r="C28" s="14">
+        <v>83.988919999999993</v>
+      </c>
+      <c r="D28" s="1">
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="1">
+        <v>200</v>
+      </c>
+      <c r="C29" s="14">
+        <v>20.399940000000001</v>
+      </c>
+      <c r="D29" s="1">
+        <v>9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1">
+        <v>200</v>
+      </c>
+      <c r="C30" s="14">
+        <v>3.0754199999999998</v>
+      </c>
+      <c r="D30" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5">
+        <v>4</v>
+      </c>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5">
+        <v>20</v>
+      </c>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5">
+        <v>20</v>
+      </c>
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5">
+        <v>5</v>
+      </c>
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="3">
-        <v>1.922208070755</v>
-      </c>
-      <c r="C13" s="3">
-        <v>157.01109695434499</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="E13" s="3">
-        <v>8.4469999999999992</v>
-      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5">
+        <v>5</v>
+      </c>
+      <c r="D37" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
+  <mergeCells count="21">
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A13:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
